--- a/数字孪生/content.xlsx
+++ b/数字孪生/content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室相关\人机物\论文\RelatedWorks\软件定义建模与执行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\down\chrome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37825D21-3B63-444D-BF7A-6592D2DE7FC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E0799E-711B-452B-B894-5CBCF4E974C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" tabRatio="223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Reactive Microservices for the Internet of Things: A case study in Fog Computing</t>
   </si>
@@ -63,13 +63,100 @@
   <si>
     <t>First Author</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本白皮书通过梳理数字孪生技术和产业应用发展情况，分析数字孪生技术热点、行业动态和未来趋势，提出相关的标准化工作需求，希望可以作为数字孪生技术领域、产业发展和标准化之间的初始连接纽带，加快推动数字孪生发展应用。</t>
+  </si>
+  <si>
+    <r>
+      <t>阿里巴巴的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字孪生</t>
+    </r>
+  </si>
+  <si>
+    <t>https://market.m.taobao.com/app/txddp/idc-digital-twin-pr/index.html?spm=a2c6h.12873639.0.0.78714addNSn6j5#/park/EA133/D</t>
+  </si>
+  <si>
+    <r>
+      <t>oneNET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台的数据孪生可视化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <t>https://open.iot.10086.cn/view/main/#/share2d?id=5dc3c5fdf03f1e16d7b8975d&amp;shareCode=1234</t>
+  </si>
+  <si>
+    <r>
+      <t>国内木棉树平台的数字孪生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mms3d.cn/html/product/slxm/</t>
+  </si>
+  <si>
+    <t>Reengineering of the aircraft structural life prediction process to fully exploit advances in very high performance digital computing is proposed. The proposed process utilizes an ultrahigh fidelity model of individual aircraft by tail number, a Digital Twin, to integrate computation of structural deflections and temperatures in response to flight conditions, with resulting local damage and material state evolution. A conceptual model of how the Digital Twin can be used for predicting the life of aircraft structure and assuring its structural integrity is presented. The technical challenges to developing and deploying a Digital Twin are discussed in detail.</t>
+  </si>
+  <si>
+    <t>With the advances in new-generation information technologies, especially big data and digital twin, smart manufacturing is becoming the focus of global manufacturing transformation and upgrading. Intelligence comes from data. Integrated analysis for the manufacturing big data is beneficial to all aspects of manufacturing. Besides, the digital twin paves a way for the cyber-physical integration of manufacturing, which is an important bottleneck to achieve smart manufacturing. In this paper, the big data and digital twin in manufacturing are reviewed, including their concept as well as their applications in product design, production planning, manufacturing, and predictive maintenance. On this basis, the similarities and differences between big data and digital twin are compared from the general and data perspectives. Since the big data and digital twin can be complementary, how they can be integrated to promote smart manufacturing are discussed.</t>
+  </si>
+  <si>
+    <t>Digital twins represent real objects or subjects with their data, functions, and communication capabilities in the digital world. As nodes within the internet of things, they enable networking and thus the automation of complex value-added chains. The application of simulation techniques brings digital twins to life and makes them experimentable; digital twins become experimentable digital twins (EDTs). Initially, these EDTs communicate with each other purely in the virtual world. The resulting networks of interacting EDTs model different application scenarios and are simulated in virtual testbeds, providing new foundations for comprehensive simulation-based systems engineering. Its focus is on EDTs, which become more detailed with every single application. Thus, complete digital representations of the respective real assets and their behaviors are created successively. The networking of EDTs with real assets leads to hybrid application scenarios in which EDTs are used in combination with real hardware, thus realizing complex control algorithms, innovative user interfaces, or mental models for intelligent systems.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8289327</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +183,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -131,6 +239,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,24 +529,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="67.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="176.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.53125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="67.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="176.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -449,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -469,11 +586,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/数字孪生/content.xlsx
+++ b/数字孪生/content.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\down\chrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E0799E-711B-452B-B894-5CBCF4E974C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A770CE-2F6C-B145-93D1-24B24BE7E54E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" tabRatio="223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" tabRatio="223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Reactive Microservices for the Internet of Things: A case study in Fog Computing</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,9 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://dl.acm.org/doi/10.1145/3297280.3297402</t>
-  </si>
-  <si>
     <t>Ind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,110 +52,288 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The Future Internet will be able to connect most of the objects that are not yet connected on the current Internet. The Internet of Things (IoT) is an important part of the Future Internet and involves connectivity between several physical and virtual objects, allowing the emergence of new services and applications. These intelligent objects, along with their tasks, constitute domain-specific applications (vertical markets), while ubiquitous and analytic services form independent domain services (horizontal markets). The development of these applications and services in these markets brings challenges such as deployment, scalability, integration, interoperability, mobility and performance. Recent research indicates that Microservices has been successfully applied by companies such as Netflix and SoundCloud to address some of these issues in their cloud computing applications. However, in the field of IoT, the use of Microservices to deal with these challenges still presents unresolved issues. In this paper, we present a reactive Microservices architecture and apply it in a Fog Computing case study to investigate these challenges at the edge of the network. Finally, we evaluate our proposal from the perspective of performance of Microservices provided by intelligent objects (IoT gateways) at the edge of the network.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C. de Santana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>First Author</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本白皮书通过梳理数字孪生技术和产业应用发展情况，分析数字孪生技术热点、行业动态和未来趋势，提出相关的标准化工作需求，希望可以作为数字孪生技术领域、产业发展和标准化之间的初始连接纽带，加快推动数字孪生发展应用。</t>
+    <t>A review of the roles of Digital Twin in CPS-based production systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elisa Negri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The  Digital  Twin  (DT)  is  one  of  the  main  concepts  associated  to  the  Industry  4.0  wave.  This  term  is  more  and  more  used  in  industry and research initiatives; however, the scientific literature does not provide a unique definition of this concept. The paper aims  at  analyzing  the  definitions  of  the  DT  concept  in  scientific  literature,  retracing  it  from  the  initial  conceptualization  in  the  aerospace field, to the most recent interpretations in the manufacturing domain and more specifically in Industry 4.0 and smartmanufacturing research. DT provides virtual representations of systems along their lifecycle. Optimizations and decisions making would  then  rely  on  the  same  data  that  are  updated  in  real-time  with  the  physical  system,  through  synchronization  enabled  by  sensors. The paper also proposes the definition of DT for Industry 4.0 manufacturing, elaborated by the European H2020 project MAYA, as a contribution to the research discussion about DT concept.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2351978917304067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Twin: Values, Challenges and EnablersFrom a Modeling Perspective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADIL RASHEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital twin can be defined as a virtual representation of a physical asset enabled throughdata and simulators for real-time prediction, optimization, monitoring, controlling, and improved decisionmaking. Recent advances in computational pipelines, multiphysics solvers, artificial intelligence, big datacybernetics, data processing and management tools bring the promise of digital twins and their impact onsociety closer to reality. Digital twinning is now an important and emerging trend in many applications. Alsoreferred to as a computational megamodel, device shadow, mirrored system, avatar or a synchronized virtualprototype, there can be no doubt that a digital twin plays a transformative role not only in how we design andoperate cyber-physical intelligent systems, but also in how we advance the modularity of multi-disciplinarysystems to tackle fundamental barriers not addressed by the current, evolutionary modeling practices. In thiswork, we review the recent status of methodologies and techniques related to the construction of digital twinsmostly from a modeling perspective. Our aim is to provide a detailed coverage of the current challenges andenabling technologies along with recommendations and reflections for various stakeholders.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8972429</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While there has been a recent growth of interest in the Digital Twin, a variety of definitions employedacross industry and academia remain. There is a need to consolidate research such to maintain a commonunderstanding of the topic and ensure future research efforts are to be based on solid foundations.Through a systematic literature review and a thematic analysis of 92 Digital Twin publications from thelast ten years, this paper provides a characterisation of the Digital Twin, identification of gaps inknowledge, and required areas of future research. In characterising the Digital Twin, the state of theconcept,keyterminology, and associated processes are identified, discussed, and consolidated to produce13 characteristics (Physical Entity/Twin;Virtual Entity/Twin;Physical Environment;Virtual Environment;State;Realisation;Metrology;Twinning;Twinning Rate;Physical-to-Virtual Connection/Twinning;Virtual-to-Physical Connection/Twinning;Physical Processes; andVirtual Processes) and a complete framework ofthe Digital Twin and its process of operation. Following this characterisation, seven knowledge gaps andtopics for future research focus are identified:Perceived Benefits;Digital Twin across the Product Life-Cycle;Use-Cases;Technical Implementations;Levels of Fidelity;Data Ownership; andIntegration between VirtualEntities; each of which are required to realise the Digital Twin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characterising the Digital Twin: A systematic literature review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Jones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1755581720300110</t>
+  </si>
+  <si>
+    <t>Digital Twin in Industry: State-of-the-Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fei Tao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8477101</t>
+  </si>
+  <si>
+    <t>Digital twin-driven product design framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With the advent of new generation information technologies in industry and product design, the big data-driven productdesign era has arrived. However, the big data-driven product design mainly places emphasis on the analysis of physicaldata rather than the virtual models, in other words, the convergence between product physical and virtual space is usu-ally absent. Digital twin, a new emerging and fast growing technology which connects the physical and virtual world,has attracted much attention worldwide recently. This paper presents a new method for product design based on the digi-tal twin approach. The development of product design is briefly introducedfirst. The framework of digital twin-drivenproduct design (DTPD) is then proposed and analysed. A case is presented to illustrate the application of the proposedDTPD method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.1080/00207543.2018.1443229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Twin: Applying emulation for machine reconditioning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.Ayani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2212827118302968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Old  machine  reconditioning  projects  extend  the  life  length  of  machines  with  reduced  investments,  however  they  frequently  involve  complex  challenges.  Due  to  the  lack  of  technical  documentation  and  the  fact  that  the  machines  are  running  in  production,  they  can  require  a  reverse  engineering phase and extremely short commissioning times. Recently, emulation software has become a key tool to create Digital Twins and carry  out  virtual  commissioning  of  new  manufacturing  systems,  reducing  the  commissioning  time  and  increasing  its  final  quality.  This  paper  presents an industrial application study in which an emulation model is used to support a reconditioning project and where the benefits gained in the working process are highlighted. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital twin driven prognostics and health management for complex equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prognostics and health management (PHM) is crucial in the lifecycle monitoring of a product, especially for complex equipment working in a harsh environment. In order to improve the accuracy and efficiency of PHM, digital twin (DT), an emerging technology to achieve physical–virtual convergence, is proposed for complex equipment. A general DT for complex equipment is first constructed, then a new method using DT driven PHM is proposed, making effective use of the interaction mechanism and fused data of DT. A case study of a wind turbine is used to illustrate the effectiveness of the proposed method.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0007850618300799</t>
+  </si>
+  <si>
+    <t>Digital Twin in Services and Industrial Product Service Systems: Review and Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiwen Zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Twin is a term that was given to the concept of a virtual, digital equivalent of a physical product. However, most research to-date focusses on the monitoring of production equipment or large assets. This neglects the important role of services and Industrial Product Service Systems (IPS2) in value creation throughout a product life cycle. In response, this study used a systematic literature review to assess the current state-of-the-art of the literature on Digital Twin in the context of product service systems. An original sample of 59 papers was carefully analyzed, but only 2 studies appeared to focus on product service systems. Most of the remaining literature focusses on the use of Digital Twin for some forms of maintenance service. This study therefore calls for more research on the use of Digital Twin technology in the context of IPS2 and outlines possible applications for the stages in a closed loop product life cycle.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2212827119302525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaping the digital twin for design and production engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benjamin Schleich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The digitalization of manufacturing fuels the application of sophisticated virtual product models, whichare referred to as digital twins, throughout all stages of product realization. Particularly, more realisticvirtual models of manufactured products are essential to bridge the gap between design andmanufacturing and to mirror the real and virtual worlds. In this paper, we propose a comprehensivereference model based on the concept of Skin Model Shapes, which serves as a digital twin of the physicalproduct in design and manufacturing. In this regard, model conceptualization, representation, andimplementation as well as applications along the product life-cycle are addressed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0007850617300409</t>
+  </si>
+  <si>
+    <t>Web-based digital twin modeling and remote control of cyber-physicalproduction systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaoLiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The rapid development new generation of information technologies facilitate the emergence of cyber-physicalproduction system (CPPS) which could pave a way to exploring new smart manufacturing solutions. Digital twin(DT) is the technical core for establishing CPPS in the context of industry 4.0. Developing an easy-to-deploy andsimple-to-use DT-based CPPS is a critical research gap. In this paper, a systemic framework is proposed toprovide guidelines for rapid system configuration and easy runtime of DT-based CPPS by integrating CPS, DTmodeling technologies, event-driven distributed cooperation mechanisms, and web technologies. The concept ofCPS node (CPSN) for manufacturing resources is established by integrating semantic information model, 3Dgeometric model and function modules. Various CPSNs are orchestrated as an autonomous CPPS using dynamicresource registration and binding technologies. To achieve easy runtime of DT-based CPPS, event-driven dis-tributed cooperation among CPSNs and web-based remote control of CPPS are proposed respectively. Finally, toverify the feasibility of the proposed framework, a prototype of DT-based CPPS is implemented, based on whichan exemplary case is conducted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0736584519300134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字孪生技术综述与展望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘大同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CJFD&amp;dbname=CJFDLAST2019&amp;filename=YQXB201811002&amp;v=4vmqliUtq4g95%25mmd2FM953o4L%25mmd2F4NJjPF4liQv%25mmd2BxRSiaIZ26U92X%25mmd2FYJG8A07SGSvcUFb5</t>
+  </si>
+  <si>
+    <t>数字孪生及其应用探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CJFD&amp;dbname=CJFDLAST2018&amp;filename=JSJJ201801001&amp;v=ecBZsCdvYYRiAX%25mmd2F7XuDN174hf5mGrZU%25mmd2BvQ7WARM97kngmq1AeUAcYzRfPRqYd1Bq</t>
+  </si>
+  <si>
+    <t>数字孪生是一种集成多物理、多尺度、多学科属性，具有实时同步、忠实映射、高保真度特性，能够实现物理世界与信息世界交互与融合的技术手段。随着数字孪生车间概念的提出，数字孪生在智能制造中的应用潜力得到越来越多的关注。分析了数字孪生在企业应用和理论研究上的进展，基于前期提出的数字孪生的五维结构模型，提出数字孪生驱动的６条应用准则，探索了数字孪生驱动的14类应用设想与实施过程中所需突破的关键问题与技术，为未来开展数字孪生的进一步落地应用提供理论和方法论参考。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>阿里巴巴的</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>随着复杂系统诊断、预测和系统健康管理技术的不断发展，在新兴的工业信息系统和工业智能的推动下</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF333333"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>IDC</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
-      <t>数字孪生</t>
-    </r>
-  </si>
-  <si>
-    <t>https://market.m.taobao.com/app/txddp/idc-digital-twin-pr/index.html?spm=a2c6h.12873639.0.0.78714addNSn6j5#/park/EA133/D</t>
-  </si>
-  <si>
-    <r>
-      <t>oneNET</t>
+      <t>数字孪生技术成为智能制造领域和复杂系统智能运行和维护领域的新兴研究热点。鉴于此，针对数字孪生技术在复杂工业系统和复杂装备领域的基本概念、应用前景、技术内涵以及发展趋势、已有初步研究规划和阶段性成果等进行梳理，</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>平台的数据孪生可视化</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
-      <t>demo</t>
-    </r>
-  </si>
-  <si>
-    <t>https://open.iot.10086.cn/view/main/#/share2d?id=5dc3c5fdf03f1e16d7b8975d&amp;shareCode=1234</t>
-  </si>
-  <si>
-    <r>
-      <t>国内木棉树平台的数字孪生</t>
+      <t>归纳面向复杂工业系统和复杂装备的智能运行和维护领域的数字孪生技术体系、关键技术、发展趋势和技术挑战等，</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF333333"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>demo</t>
+      <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.mms3d.cn/html/product/slxm/</t>
-  </si>
-  <si>
-    <t>Reengineering of the aircraft structural life prediction process to fully exploit advances in very high performance digital computing is proposed. The proposed process utilizes an ultrahigh fidelity model of individual aircraft by tail number, a Digital Twin, to integrate computation of structural deflections and temperatures in response to flight conditions, with resulting local damage and material state evolution. A conceptual model of how the Digital Twin can be used for predicting the life of aircraft structure and assuring its structural integrity is presented. The technical challenges to developing and deploying a Digital Twin are discussed in detail.</t>
-  </si>
-  <si>
-    <t>With the advances in new-generation information technologies, especially big data and digital twin, smart manufacturing is becoming the focus of global manufacturing transformation and upgrading. Intelligence comes from data. Integrated analysis for the manufacturing big data is beneficial to all aspects of manufacturing. Besides, the digital twin paves a way for the cyber-physical integration of manufacturing, which is an important bottleneck to achieve smart manufacturing. In this paper, the big data and digital twin in manufacturing are reviewed, including their concept as well as their applications in product design, production planning, manufacturing, and predictive maintenance. On this basis, the similarities and differences between big data and digital twin are compared from the general and data perspectives. Since the big data and digital twin can be complementary, how they can be integrated to promote smart manufacturing are discussed.</t>
-  </si>
-  <si>
-    <t>Digital twins represent real objects or subjects with their data, functions, and communication capabilities in the digital world. As nodes within the internet of things, they enable networking and thus the automation of complex value-added chains. The application of simulation techniques brings digital twins to life and makes them experimentable; digital twins become experimentable digital twins (EDTs). Initially, these EDTs communicate with each other purely in the virtual world. The resulting networks of interacting EDTs model different application scenarios and are simulated in virtual testbeds, providing new foundations for comprehensive simulation-based systems engineering. Its focus is on EDTs, which become more detailed with every single application. Thus, complete digital representations of the respective real assets and their behaviors are created successively. The networking of EDTs with real assets leads to hybrid application scenarios in which EDTs are used in combination with real hardware, thus realizing complex control algorithms, innovative user interfaces, or mental models for intelligent systems.</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/document/8289327</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>分析数字孪生与其支撑的工业大数据、云计算、人工智能、虚拟现实等的相互支撑和相互促进的关系，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>预期能够给复杂系统诊断、预测和系统健康管理领域对数字孪生技术感兴趣研究人员提供一定的参考和借鉴。</t>
+    </r>
+  </si>
+  <si>
+    <t>数字孪生综述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张天瀛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本论文将从数字孪生的基本概念、基本结构和特征剖析各个行业领域的专家学者对于数字孪生的定义和理解，研究数字孪生技术促进大数据驱动的制造业时代物理空间和虚拟空间之间融合的方法，并从各个行业应用领域的研究现状掌握数字孪生如何从工业设备监控、远程操控、智慧城市管理、推动现实世界探索、监控检测等方面改变我们的工作和生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CPFD&amp;dbname=CPFDLAST2020&amp;filename=GXRH201911001017&amp;v=KDIIsKriODmWsRFWJG7ep6wTGC0%25mmd2BFHGpmp4X4erl53aHqkQB2ICGeo3TBuR%25mmd2FHutHP6%25mmd2FL9JBN0IE%3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital twin (DT) is one of the most promisingenabling technologies for realizing smart manufacturing and Industry 4.0. DTs are characterized by the seamless integration between the cyber and physical spaces. The importance of DTs is increasingly recognized by both academia and industry. It has been almost 15 years since the concept of the DT was initially proposed. To date, many DT applications have been successfully implemented in different industries, including product design, production, prognostics and health management, and some other fields. However, at present, no paper has focused on the review of DT applications in industry. In an effort to understand the development and application of DTs in industry, this paper thoroughly reviews the state-of-the-art of the DT research concerning the key components of DTs, the current development of DTs, and the major DT applications in industry. This paper also outlines the current challenges and some possible directions for future work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,25 +361,24 @@
       <family val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.5"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,8 +398,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -233,25 +410,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -529,127 +709,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="67.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="176.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="67.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="176.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="93" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="105">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
         <v>2019</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="1">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
         <v>2020</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="E4" s="6" t="s">
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="80">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="80">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="80">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{4AFB4D58-8533-C942-80B3-2F2529FAA5FC}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{50CD6BE1-8259-F446-8567-83BDE0451737}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{9024A7FE-36FB-0344-9592-C1E319CC7F3F}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{2AF90BA1-B8DE-2647-BF03-E167E16C818F}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{29CEBD43-5589-4E44-B93E-DCA0F13ABCBB}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{D3B1A881-A622-3C48-A3A0-15BC339D364B}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{F08F3E0F-256D-074F-8738-CE19A2BAA1BD}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{4CCDA130-BB3C-3B4F-88EE-48D8A166ACA2}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{B414D3E0-EF81-F848-AC73-860E746BA060}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{EAF2882A-CA8E-4A49-976D-EE1ABD01E535}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{85CD9681-EF1C-A943-A1A0-3DF92CD6931D}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{E55831B4-76CD-E44A-A354-BF8CCD5D3D4A}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{88CBF12E-1FE3-EB41-8EDA-E1817D681069}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/数字孪生/content.xlsx
+++ b/数字孪生/content.xlsx
@@ -5,32 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzy/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A770CE-2F6C-B145-93D1-24B24BE7E54E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957C4D8-2C2E-4D4C-9348-9CF5CDCFFF3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" tabRatio="223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+  <si>
+    <t>Reactive Microservices for the Internet of Things: A case study in Fog Computing</t>
+  </si>
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +42,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://dl.acm.org/doi/10.1145/3297280.3297402</t>
+  </si>
+  <si>
     <t>Ind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,180 +53,225 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>The Future Internet will be able to connect most of the objects that are not yet connected on the current Internet. The Internet of Things (IoT) is an important part of the Future Internet and involves connectivity between several physical and virtual objects, allowing the emergence of new services and applications. These intelligent objects, along with their tasks, constitute domain-specific applications (vertical markets), while ubiquitous and analytic services form independent domain services (horizontal markets). The development of these applications and services in these markets brings challenges such as deployment, scalability, integration, interoperability, mobility and performance. Recent research indicates that Microservices has been successfully applied by companies such as Netflix and SoundCloud to address some of these issues in their cloud computing applications. However, in the field of IoT, the use of Microservices to deal with these challenges still presents unresolved issues. In this paper, we present a reactive Microservices architecture and apply it in a Fog Computing case study to investigate these challenges at the edge of the network. Finally, we evaluate our proposal from the perspective of performance of Microservices provided by intelligent objects (IoT gateways) at the edge of the network.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C. de Santana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>First Author</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>本白皮书通过梳理数字孪生技术和产业应用发展情况，分析数字孪生技术热点、行业动态和未来趋势，提出相关的标准化工作需求，希望可以作为数字孪生技术领域、产业发展和标准化之间的初始连接纽带，加快推动数字孪生发展应用。</t>
+  </si>
+  <si>
+    <r>
+      <t>阿里巴巴的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字孪生</t>
+    </r>
+  </si>
+  <si>
+    <t>https://market.m.taobao.com/app/txddp/idc-digital-twin-pr/index.html?spm=a2c6h.12873639.0.0.78714addNSn6j5#/park/EA133/D</t>
+  </si>
+  <si>
+    <r>
+      <t>oneNET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台的数据孪生可视化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+  </si>
+  <si>
+    <t>https://open.iot.10086.cn/view/main/#/share2d?id=5dc3c5fdf03f1e16d7b8975d&amp;shareCode=1234</t>
+  </si>
+  <si>
+    <r>
+      <t>国内木棉树平台的数字孪生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mms3d.cn/html/product/slxm/</t>
+  </si>
+  <si>
+    <t>Reengineering of the aircraft structural life prediction process to fully exploit advances in very high performance digital computing is proposed. The proposed process utilizes an ultrahigh fidelity model of individual aircraft by tail number, a Digital Twin, to integrate computation of structural deflections and temperatures in response to flight conditions, with resulting local damage and material state evolution. A conceptual model of how the Digital Twin can be used for predicting the life of aircraft structure and assuring its structural integrity is presented. The technical challenges to developing and deploying a Digital Twin are discussed in detail.</t>
+  </si>
+  <si>
+    <t>With the advances in new-generation information technologies, especially big data and digital twin, smart manufacturing is becoming the focus of global manufacturing transformation and upgrading. Intelligence comes from data. Integrated analysis for the manufacturing big data is beneficial to all aspects of manufacturing. Besides, the digital twin paves a way for the cyber-physical integration of manufacturing, which is an important bottleneck to achieve smart manufacturing. In this paper, the big data and digital twin in manufacturing are reviewed, including their concept as well as their applications in product design, production planning, manufacturing, and predictive maintenance. On this basis, the similarities and differences between big data and digital twin are compared from the general and data perspectives. Since the big data and digital twin can be complementary, how they can be integrated to promote smart manufacturing are discussed.</t>
+  </si>
+  <si>
+    <t>Digital twins represent real objects or subjects with their data, functions, and communication capabilities in the digital world. As nodes within the internet of things, they enable networking and thus the automation of complex value-added chains. The application of simulation techniques brings digital twins to life and makes them experimentable; digital twins become experimentable digital twins (EDTs). Initially, these EDTs communicate with each other purely in the virtual world. The resulting networks of interacting EDTs model different application scenarios and are simulated in virtual testbeds, providing new foundations for comprehensive simulation-based systems engineering. Its focus is on EDTs, which become more detailed with every single application. Thus, complete digital representations of the respective real assets and their behaviors are created successively. The networking of EDTs with real assets leads to hybrid application scenarios in which EDTs are used in combination with real hardware, thus realizing complex control algorithms, innovative user interfaces, or mental models for intelligent systems.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8289327</t>
+  </si>
+  <si>
     <t>A review of the roles of Digital Twin in CPS-based production systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Elisa Negri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The  Digital  Twin  (DT)  is  one  of  the  main  concepts  associated  to  the  Industry  4.0  wave.  This  term  is  more  and  more  used  in  industry and research initiatives; however, the scientific literature does not provide a unique definition of this concept. The paper aims  at  analyzing  the  definitions  of  the  DT  concept  in  scientific  literature,  retracing  it  from  the  initial  conceptualization  in  the  aerospace field, to the most recent interpretations in the manufacturing domain and more specifically in Industry 4.0 and smartmanufacturing research. DT provides virtual representations of systems along their lifecycle. Optimizations and decisions making would  then  rely  on  the  same  data  that  are  updated  in  real-time  with  the  physical  system,  through  synchronization  enabled  by  sensors. The paper also proposes the definition of DT for Industry 4.0 manufacturing, elaborated by the European H2020 project MAYA, as a contribution to the research discussion about DT concept.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S2351978917304067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Digital Twin: Values, Challenges and EnablersFrom a Modeling Perspective</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ADIL RASHEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Digital twin can be defined as a virtual representation of a physical asset enabled throughdata and simulators for real-time prediction, optimization, monitoring, controlling, and improved decisionmaking. Recent advances in computational pipelines, multiphysics solvers, artificial intelligence, big datacybernetics, data processing and management tools bring the promise of digital twins and their impact onsociety closer to reality. Digital twinning is now an important and emerging trend in many applications. Alsoreferred to as a computational megamodel, device shadow, mirrored system, avatar or a synchronized virtualprototype, there can be no doubt that a digital twin plays a transformative role not only in how we design andoperate cyber-physical intelligent systems, but also in how we advance the modularity of multi-disciplinarysystems to tackle fundamental barriers not addressed by the current, evolutionary modeling practices. In thiswork, we review the recent status of methodologies and techniques related to the construction of digital twinsmostly from a modeling perspective. Our aim is to provide a detailed coverage of the current challenges andenabling technologies along with recommendations and reflections for various stakeholders.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/abstract/document/8972429</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characterising the Digital Twin: A systematic literature review</t>
+  </si>
+  <si>
+    <t>David Jones</t>
   </si>
   <si>
     <t>While there has been a recent growth of interest in the Digital Twin, a variety of definitions employedacross industry and academia remain. There is a need to consolidate research such to maintain a commonunderstanding of the topic and ensure future research efforts are to be based on solid foundations.Through a systematic literature review and a thematic analysis of 92 Digital Twin publications from thelast ten years, this paper provides a characterisation of the Digital Twin, identification of gaps inknowledge, and required areas of future research. In characterising the Digital Twin, the state of theconcept,keyterminology, and associated processes are identified, discussed, and consolidated to produce13 characteristics (Physical Entity/Twin;Virtual Entity/Twin;Physical Environment;Virtual Environment;State;Realisation;Metrology;Twinning;Twinning Rate;Physical-to-Virtual Connection/Twinning;Virtual-to-Physical Connection/Twinning;Physical Processes; andVirtual Processes) and a complete framework ofthe Digital Twin and its process of operation. Following this characterisation, seven knowledge gaps andtopics for future research focus are identified:Perceived Benefits;Digital Twin across the Product Life-Cycle;Use-Cases;Technical Implementations;Levels of Fidelity;Data Ownership; andIntegration between VirtualEntities; each of which are required to realise the Digital Twin.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characterising the Digital Twin: A systematic literature review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Jones</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S1755581720300110</t>
   </si>
   <si>
     <t>Digital Twin in Industry: State-of-the-Art</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fei Tao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital twin (DT) is one of the most promisingenabling technologies for realizing smart manufacturing and Industry 4.0. DTs are characterized by the seamless integration between the cyber and physical spaces. The importance of DTs is increasingly recognized by both academia and industry. It has been almost 15 years since the concept of the DT was initially proposed. To date, many DT applications have been successfully implemented in different industries, including product design, production, prognostics and health management, and some other fields. However, at present, no paper has focused on the review of DT applications in industry. In an effort to understand the development and application of DTs in industry, this paper thoroughly reviews the state-of-the-art of the DT research concerning the key components of DTs, the current development of DTs, and the major DT applications in industry. This paper also outlines the current challenges and some possible directions for future work.</t>
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/abstract/document/8477101</t>
   </si>
   <si>
     <t>Digital twin-driven product design framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>With the advent of new generation information technologies in industry and product design, the big data-driven productdesign era has arrived. However, the big data-driven product design mainly places emphasis on the analysis of physicaldata rather than the virtual models, in other words, the convergence between product physical and virtual space is usu-ally absent. Digital twin, a new emerging and fast growing technology which connects the physical and virtual world,has attracted much attention worldwide recently. This paper presents a new method for product design based on the digi-tal twin approach. The development of product design is briefly introducedfirst. The framework of digital twin-drivenproduct design (DTPD) is then proposed and analysed. A case is presented to illustrate the application of the proposedDTPD method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.tandfonline.com/doi/full/10.1080/00207543.2018.1443229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digital Twin: Applying emulation for machine reconditioning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.Ayani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S2212827118302968</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Old  machine  reconditioning  projects  extend  the  life  length  of  machines  with  reduced  investments,  however  they  frequently  involve  complex  challenges.  Due  to  the  lack  of  technical  documentation  and  the  fact  that  the  machines  are  running  in  production,  they  can  require  a  reverse  engineering phase and extremely short commissioning times. Recently, emulation software has become a key tool to create Digital Twins and carry  out  virtual  commissioning  of  new  manufacturing  systems,  reducing  the  commissioning  time  and  increasing  its  final  quality.  This  paper  presents an industrial application study in which an emulation model is used to support a reconditioning project and where the benefits gained in the working process are highlighted. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Digital twin driven prognostics and health management for complex equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Prognostics and health management (PHM) is crucial in the lifecycle monitoring of a product, especially for complex equipment working in a harsh environment. In order to improve the accuracy and efficiency of PHM, digital twin (DT), an emerging technology to achieve physical–virtual convergence, is proposed for complex equipment. A general DT for complex equipment is first constructed, then a new method using DT driven PHM is proposed, making effective use of the interaction mechanism and fused data of DT. A case study of a wind turbine is used to illustrate the effectiveness of the proposed method.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0007850618300799</t>
   </si>
   <si>
-    <t>Digital Twin in Services and Industrial Product Service Systems: Review and Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haiwen Zhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digital Twin is a term that was given to the concept of a virtual, digital equivalent of a physical product. However, most research to-date focusses on the monitoring of production equipment or large assets. This neglects the important role of services and Industrial Product Service Systems (IPS2) in value creation throughout a product life cycle. In response, this study used a systematic literature review to assess the current state-of-the-art of the literature on Digital Twin in the context of product service systems. An original sample of 59 papers was carefully analyzed, but only 2 studies appeared to focus on product service systems. Most of the remaining literature focusses on the use of Digital Twin for some forms of maintenance service. This study therefore calls for more research on the use of Digital Twin technology in the context of IPS2 and outlines possible applications for the stages in a closed loop product life cycle.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S2212827119302525</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shaping the digital twin for design and production engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Benjamin Schleich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The digitalization of manufacturing fuels the application of sophisticated virtual product models, whichare referred to as digital twins, throughout all stages of product realization. Particularly, more realisticvirtual models of manufactured products are essential to bridge the gap between design andmanufacturing and to mirror the real and virtual worlds. In this paper, we propose a comprehensivereference model based on the concept of Skin Model Shapes, which serves as a digital twin of the physicalproduct in design and manufacturing. In this regard, model conceptualization, representation, andimplementation as well as applications along the product life-cycle are addressed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0007850617300409</t>
   </si>
   <si>
     <t>Web-based digital twin modeling and remote control of cyber-physicalproduction systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ChaoLiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The rapid development new generation of information technologies facilitate the emergence of cyber-physicalproduction system (CPPS) which could pave a way to exploring new smart manufacturing solutions. Digital twin(DT) is the technical core for establishing CPPS in the context of industry 4.0. Developing an easy-to-deploy andsimple-to-use DT-based CPPS is a critical research gap. In this paper, a systemic framework is proposed toprovide guidelines for rapid system configuration and easy runtime of DT-based CPPS by integrating CPS, DTmodeling technologies, event-driven distributed cooperation mechanisms, and web technologies. The concept ofCPS node (CPSN) for manufacturing resources is established by integrating semantic information model, 3Dgeometric model and function modules. Various CPSNs are orchestrated as an autonomous CPPS using dynamicresource registration and binding technologies. To achieve easy runtime of DT-based CPPS, event-driven dis-tributed cooperation among CPSNs and web-based remote control of CPPS are proposed respectively. Finally, toverify the feasibility of the proposed framework, a prototype of DT-based CPPS is implemented, based on whichan exemplary case is conducted.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0736584519300134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字孪生及其应用探索</t>
+  </si>
+  <si>
+    <t>陶飞</t>
+  </si>
+  <si>
+    <t>数字孪生是一种集成多物理、多尺度、多学科属性，具有实时同步、忠实映射、高保真度特性，能够实现物理世界与信息世界交互与融合的技术手段。随着数字孪生车间概念的提出，数字孪生在智能制造中的应用潜力得到越来越多的关注。分析了数字孪生在企业应用和理论研究上的进展，基于前期提出的数字孪生的五维结构模型，提出数字孪生驱动的６条应用准则，探索了数字孪生驱动的14类应用设想与实施过程中所需突破的关键问题与技术，为未来开展数字孪生的进一步落地应用提供理论和方法论参考。</t>
+  </si>
+  <si>
+    <t>https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CJFD&amp;dbname=CJFDLAST2018&amp;filename=JSJJ201801001&amp;v=ecBZsCdvYYRiAX%25mmd2F7XuDN174hf5mGrZU%25mmd2BvQ7WARM97kngmq1AeUAcYzRfPRqYd1Bq</t>
   </si>
   <si>
     <t>数字孪生技术综述与展望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘大同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CJFD&amp;dbname=CJFDLAST2019&amp;filename=YQXB201811002&amp;v=4vmqliUtq4g95%25mmd2FM953o4L%25mmd2F4NJjPF4liQv%25mmd2BxRSiaIZ26U92X%25mmd2FYJG8A07SGSvcUFb5</t>
-  </si>
-  <si>
-    <t>数字孪生及其应用探索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CJFD&amp;dbname=CJFDLAST2018&amp;filename=JSJJ201801001&amp;v=ecBZsCdvYYRiAX%25mmd2F7XuDN174hf5mGrZU%25mmd2BvQ7WARM97kngmq1AeUAcYzRfPRqYd1Bq</t>
-  </si>
-  <si>
-    <t>数字孪生是一种集成多物理、多尺度、多学科属性，具有实时同步、忠实映射、高保真度特性，能够实现物理世界与信息世界交互与融合的技术手段。随着数字孪生车间概念的提出，数字孪生在智能制造中的应用潜力得到越来越多的关注。分析了数字孪生在企业应用和理论研究上的进展，基于前期提出的数字孪生的五维结构模型，提出数字孪生驱动的６条应用准则，探索了数字孪生驱动的14类应用设想与实施过程中所需突破的关键问题与技术，为未来开展数字孪生的进一步落地应用提供理论和方法论参考。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+  </si>
+  <si>
+    <r>
+      <t>随着复杂系统诊断、预测和系统健康管理技术的不断发展，在新兴的工业信息系统和工业智能的推动下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -233,7 +279,7 @@
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>随着复杂系统诊断、预测和系统健康管理技术的不断发展，在新兴的工业信息系统和工业智能的推动下</t>
+      <t>数字孪生技术成为智能制造领域和复杂系统智能运行和维护领域的新兴研究热点。鉴于此，针对数字孪生技术在复杂工业系统和复杂装备领域的基本概念、应用前景、技术内涵以及发展趋势、已有初步研究规划和阶段性成果等进行梳理，</t>
     </r>
     <r>
       <rPr>
@@ -251,7 +297,7 @@
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>数字孪生技术成为智能制造领域和复杂系统智能运行和维护领域的新兴研究热点。鉴于此，针对数字孪生技术在复杂工业系统和复杂装备领域的基本概念、应用前景、技术内涵以及发展趋势、已有初步研究规划和阶段性成果等进行梳理，</t>
+      <t>归纳面向复杂工业系统和复杂装备的智能运行和维护领域的数字孪生技术体系、关键技术、发展趋势和技术挑战等，</t>
     </r>
     <r>
       <rPr>
@@ -269,7 +315,7 @@
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>归纳面向复杂工业系统和复杂装备的智能运行和维护领域的数字孪生技术体系、关键技术、发展趋势和技术挑战等，</t>
+      <t>分析数字孪生与其支撑的工业大数据、云计算、人工智能、虚拟现实等的相互支撑和相互促进的关系，</t>
     </r>
     <r>
       <rPr>
@@ -287,53 +333,18 @@
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>分析数字孪生与其支撑的工业大数据、云计算、人工智能、虚拟现实等的相互支撑和相互促进的关系，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
       <t>预期能够给复杂系统诊断、预测和系统健康管理领域对数字孪生技术感兴趣研究人员提供一定的参考和借鉴。</t>
     </r>
   </si>
   <si>
-    <t>数字孪生综述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张天瀛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本论文将从数字孪生的基本概念、基本结构和特征剖析各个行业领域的专家学者对于数字孪生的定义和理解，研究数字孪生技术促进大数据驱动的制造业时代物理空间和虚拟空间之间融合的方法，并从各个行业应用领域的研究现状掌握数字孪生如何从工业设备监控、远程操控、智慧城市管理、推动现实世界探索、监控检测等方面改变我们的工作和生活。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CPFD&amp;dbname=CPFDLAST2020&amp;filename=GXRH201911001017&amp;v=KDIIsKriODmWsRFWJG7ep6wTGC0%25mmd2BFHGpmp4X4erl53aHqkQB2ICGeo3TBuR%25mmd2FHutHP6%25mmd2FL9JBN0IE%3d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digital twin (DT) is one of the most promisingenabling technologies for realizing smart manufacturing and Industry 4.0. DTs are characterized by the seamless integration between the cyber and physical spaces. The importance of DTs is increasingly recognized by both academia and industry. It has been almost 15 years since the concept of the DT was initially proposed. To date, many DT applications have been successfully implemented in different industries, including product design, production, prognostics and health management, and some other fields. However, at present, no paper has focused on the review of DT applications in industry. In an effort to understand the development and application of DTs in industry, this paper thoroughly reviews the state-of-the-art of the DT research concerning the key components of DTs, the current development of DTs, and the major DT applications in industry. This paper also outlines the current challenges and some possible directions for future work.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>https://kns.cnki.net/kcms/detail/detail.aspx?dbcode=CJFD&amp;dbname=CJFDLAST2019&amp;filename=YQXB201811002&amp;v=4vmqliUtq4g95%25mmd2FM953o4L%25mmd2F4NJjPF4liQv%25mmd2BxRSiaIZ26U92X%25mmd2FYJG8A07SGSvcUFb5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +372,33 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -371,14 +409,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -400,9 +444,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,23 +454,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,41 +772,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="67.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="67.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="176.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="176.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="93" customHeight="1">
@@ -751,282 +814,293 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32">
+      <c r="C3" s="3"/>
+      <c r="D3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48">
+      <c r="D7" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="80">
+      <c r="D8" s="1">
         <v>2017</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="102">
+      <c r="D9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="105">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2020</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="61" customHeight="1">
+      <c r="A16" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="90">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="90">
+      <c r="A17" s="9">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2020</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="80">
+      <c r="A18" s="9">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="80">
+      <c r="A19" s="9">
         <v>11</v>
       </c>
-      <c r="D3" s="1">
+      <c r="B19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="9">
         <v>2018</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="105">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="75">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="80">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="80">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="80">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="E15" s="6"/>
+      <c r="E19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{4AFB4D58-8533-C942-80B3-2F2529FAA5FC}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{50CD6BE1-8259-F446-8567-83BDE0451737}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{9024A7FE-36FB-0344-9592-C1E319CC7F3F}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{2AF90BA1-B8DE-2647-BF03-E167E16C818F}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{29CEBD43-5589-4E44-B93E-DCA0F13ABCBB}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{D3B1A881-A622-3C48-A3A0-15BC339D364B}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{F08F3E0F-256D-074F-8738-CE19A2BAA1BD}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{4CCDA130-BB3C-3B4F-88EE-48D8A166ACA2}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{B414D3E0-EF81-F848-AC73-860E746BA060}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{EAF2882A-CA8E-4A49-976D-EE1ABD01E535}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{85CD9681-EF1C-A943-A1A0-3DF92CD6931D}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{E55831B4-76CD-E44A-A354-BF8CCD5D3D4A}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{88CBF12E-1FE3-EB41-8EDA-E1817D681069}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{A821A720-F38E-B945-9B84-469E636DB312}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{775A5867-A5D0-6441-9569-E863619584D8}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{DB10CBD9-B454-F245-8E33-52C9D91797E4}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{B99297B0-B70C-324B-8F63-01935C72EFCB}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{DBFBEE89-484E-4A46-9F02-0FD626253FD3}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{F7A7DC97-66BF-724B-8A76-83EEEBB50218}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{42F0E786-767C-7C47-8F56-15E1CD809B46}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{6D3BF552-F4D0-8848-AE12-E97C346D2A7A}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{6783DC77-ED7B-BF45-B698-BCB087534695}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{4A4059F6-26BE-864F-A51C-18068914465C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>